--- a/data/trans_orig/P14B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ECD4DC-63FA-4D0F-B890-12A3A0531C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4508A008-3CF2-49BA-9F0C-1115DBBA91C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8AD71D4-FDD1-45C0-B819-D933B0136EF1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{416B6EAB-1164-40CF-904F-1C64F66544B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="409">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>75,97%</t>
+    <t>75,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,7 +100,7 @@
     <t>91,23%</t>
   </si>
   <si>
-    <t>70,22%</t>
+    <t>70,59%</t>
   </si>
   <si>
     <t>5,42%</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,03%</t>
+    <t>24,02%</t>
   </si>
   <si>
     <t>17,5%</t>
@@ -121,7 +121,7 @@
     <t>8,77%</t>
   </si>
   <si>
-    <t>29,78%</t>
+    <t>29,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,10 +133,10 @@
     <t>59,18%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -145,19 +145,19 @@
     <t>73,95%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -169,10 +169,10 @@
     <t>26,05%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -181,55 +181,55 @@
     <t>62,52%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -265,994 +265,1006 @@
     <t>91,89%</t>
   </si>
   <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>28,25%</t>
   </si>
   <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D6885E-E6ED-48A4-9916-4665224D24EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB112A6-0D6F-4E96-B0FC-0F3BBB499821}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2700,10 +2712,10 @@
         <v>5057</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -2715,13 +2727,13 @@
         <v>4166</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2730,13 +2742,13 @@
         <v>9223</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2763,13 @@
         <v>2107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2766,13 +2778,13 @@
         <v>3190</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2781,13 +2793,13 @@
         <v>5297</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2855,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2855,10 +2867,10 @@
         <v>9043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2870,10 +2882,10 @@
         <v>4384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2885,13 +2897,13 @@
         <v>13426</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2918,13 @@
         <v>2035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2921,13 +2933,13 @@
         <v>1024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2936,13 +2948,13 @@
         <v>3060</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3022,13 @@
         <v>56915</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -3025,13 +3037,13 @@
         <v>32309</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>82</v>
@@ -3040,13 +3052,13 @@
         <v>89225</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3073,13 @@
         <v>15688</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3076,13 +3088,13 @@
         <v>9175</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3091,13 +3103,13 @@
         <v>24862</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3165,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F19AAC-468B-4BD1-B73B-1FAA8DDCD0A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43C5904-537A-4260-81CC-54E758747B12}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3301,10 +3313,10 @@
         <v>4836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -3319,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>28</v>
@@ -3331,10 +3343,10 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -3352,13 +3364,13 @@
         <v>2447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3373,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3382,13 +3394,13 @@
         <v>2447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3468,13 @@
         <v>7302</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3471,10 +3483,10 @@
         <v>6555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -3486,13 +3498,13 @@
         <v>13857</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>5981</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3522,13 +3534,13 @@
         <v>1169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3537,13 +3549,13 @@
         <v>7150</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3623,10 @@
         <v>2557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3641,10 +3653,10 @@
         <v>5972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3662,13 +3674,13 @@
         <v>1748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3692,13 +3704,13 @@
         <v>1748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,10 +3778,10 @@
         <v>7494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3781,10 +3793,10 @@
         <v>4277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3796,13 +3808,13 @@
         <v>11771</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>2064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3832,13 +3844,13 @@
         <v>969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3847,13 +3859,13 @@
         <v>3033</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,10 +3933,10 @@
         <v>2869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3936,7 +3948,7 @@
         <v>975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
@@ -3951,13 +3963,13 @@
         <v>3844</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3984,13 @@
         <v>1771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3987,7 +3999,7 @@
         <v>1030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
@@ -4002,13 +4014,13 @@
         <v>2801</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4088,10 @@
         <v>2845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4106,10 +4118,10 @@
         <v>7260</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4127,13 +4139,13 @@
         <v>1038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4374,7 +4386,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4568,7 +4580,7 @@
         <v>80</v>
       </c>
       <c r="N28" s="7">
-        <v>84971</v>
+        <v>84972</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>238</v>
@@ -4670,7 +4682,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="7">
-        <v>111999</v>
+        <v>112000</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -4684,7 +4696,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F79F0D-2977-4C65-B1EC-CCE5199D1909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F4B791-3975-4883-AF85-3A77565A521E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5017,13 +5029,13 @@
         <v>15361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5050,13 @@
         <v>2823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5053,13 +5065,13 @@
         <v>3193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5068,13 +5080,13 @@
         <v>6016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5154,13 @@
         <v>7664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5157,13 +5169,13 @@
         <v>6864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5172,13 +5184,13 @@
         <v>14528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5205,13 @@
         <v>3105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5208,13 +5220,13 @@
         <v>5190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5223,13 +5235,13 @@
         <v>8295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5309,13 @@
         <v>10381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5312,13 +5324,13 @@
         <v>9615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -5327,13 +5339,13 @@
         <v>19996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5360,13 @@
         <v>2818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5363,13 +5375,13 @@
         <v>3363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5378,13 +5390,13 @@
         <v>6181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5464,13 @@
         <v>1921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5467,13 +5479,13 @@
         <v>1267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5482,13 +5494,13 @@
         <v>3188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5515,13 @@
         <v>1909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5518,13 +5530,13 @@
         <v>2464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5533,13 +5545,13 @@
         <v>4373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5619,13 @@
         <v>8259</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5622,13 +5634,13 @@
         <v>5846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -5637,13 +5649,13 @@
         <v>14105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5670,13 @@
         <v>4821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5673,13 +5685,13 @@
         <v>4245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -5688,13 +5700,13 @@
         <v>9066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5774,13 @@
         <v>9248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5777,13 +5789,13 @@
         <v>15438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5792,13 +5804,13 @@
         <v>24685</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5825,13 @@
         <v>8424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5828,13 +5840,13 @@
         <v>8706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -5843,13 +5855,13 @@
         <v>17131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5917,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5917,13 +5929,13 @@
         <v>7880</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5932,13 +5944,13 @@
         <v>8798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -5947,13 +5959,13 @@
         <v>16678</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5980,13 @@
         <v>8063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5983,13 +5995,13 @@
         <v>10233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5998,13 +6010,13 @@
         <v>18295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6084,13 @@
         <v>55532</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -6087,13 +6099,13 @@
         <v>56783</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
@@ -6102,13 +6114,13 @@
         <v>112315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6135,13 @@
         <v>33351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -6138,13 +6150,13 @@
         <v>39694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -6153,13 +6165,13 @@
         <v>73045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6227,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4508A008-3CF2-49BA-9F0C-1115DBBA91C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D192DC8-EA4A-4ED6-8FC0-DDF4127A82F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{416B6EAB-1164-40CF-904F-1C64F66544B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6100CB45-A058-434B-BEEA-460779400A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>75,98%</t>
+    <t>66,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,241 +100,247 @@
     <t>91,23%</t>
   </si>
   <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>72,94%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -343,109 +349,109 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>47,18%</t>
+    <t>46,37%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>23,44%</t>
+    <t>34,67%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>52,82%</t>
+    <t>53,63%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>76,56%</t>
+    <t>65,33%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>22,25%</t>
+    <t>22,37%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -454,13 +460,13 @@
     <t>73,04%</t>
   </si>
   <si>
-    <t>30,9%</t>
+    <t>36,49%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>77,75%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -469,784 +475,784 @@
     <t>26,96%</t>
   </si>
   <si>
-    <t>69,1%</t>
+    <t>63,51%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>41,5%</t>
+    <t>52,98%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>58,5%</t>
+    <t>47,02%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>17,35%</t>
+    <t>17,02%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>40,89%</t>
+    <t>38,79%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>82,98%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>59,11%</t>
+    <t>61,21%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>46,36%</t>
+    <t>46,28%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>23,41%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>46,86%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
   </si>
   <si>
     <t>41,14%</t>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB112A6-0D6F-4E96-B0FC-0F3BBB499821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82337842-EDE0-49E9-BB35-FE5E1D3C641C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2712,10 +2718,10 @@
         <v>5057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -2727,13 +2733,13 @@
         <v>4166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2742,13 +2748,13 @@
         <v>9223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2769,13 @@
         <v>2107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2778,13 +2784,13 @@
         <v>3190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2793,13 +2799,13 @@
         <v>5297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2861,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2867,10 +2873,10 @@
         <v>9043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2882,10 +2888,10 @@
         <v>4384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2897,13 +2903,13 @@
         <v>13426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>2035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2933,13 +2939,13 @@
         <v>1024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2948,13 +2954,13 @@
         <v>3060</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3028,13 @@
         <v>56915</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -3037,13 +3043,13 @@
         <v>32309</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>82</v>
@@ -3052,13 +3058,13 @@
         <v>89225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>15688</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3088,13 +3094,13 @@
         <v>9175</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3103,13 +3109,13 @@
         <v>24862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3171,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43C5904-537A-4260-81CC-54E758747B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FFEDE-813D-4504-AF2F-59A21B6BA06C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3206,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3313,10 +3319,10 @@
         <v>4836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -3331,7 +3337,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>28</v>
@@ -3343,10 +3349,10 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -3364,13 +3370,13 @@
         <v>2447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3385,7 +3391,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3394,13 +3400,13 @@
         <v>2447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3474,13 @@
         <v>7302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3483,10 +3489,10 @@
         <v>6555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -3498,13 +3504,13 @@
         <v>13857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>5981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3534,13 +3540,13 @@
         <v>1169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3549,13 +3555,13 @@
         <v>7150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,10 +3629,10 @@
         <v>2557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3653,10 +3659,10 @@
         <v>5972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3674,13 +3680,13 @@
         <v>1748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3704,13 +3710,13 @@
         <v>1748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,10 +3784,10 @@
         <v>7494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3793,10 +3799,10 @@
         <v>4277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3808,13 +3814,13 @@
         <v>11771</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3835,13 @@
         <v>2064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3844,13 +3850,13 @@
         <v>969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3859,13 +3865,13 @@
         <v>3033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,10 +3939,10 @@
         <v>2869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3948,7 +3954,7 @@
         <v>975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
@@ -3963,13 +3969,13 @@
         <v>3844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3990,13 @@
         <v>1771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3999,7 +4005,7 @@
         <v>1030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
@@ -4014,13 +4020,13 @@
         <v>2801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,10 +4094,10 @@
         <v>2845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4118,10 +4124,10 @@
         <v>7260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4139,13 +4145,13 @@
         <v>1038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4169,13 +4175,13 @@
         <v>1038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,10 +4249,10 @@
         <v>9392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -4258,10 +4264,10 @@
         <v>9247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -4273,13 +4279,13 @@
         <v>18639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>2023</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4309,13 +4315,13 @@
         <v>1027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -4324,13 +4330,13 @@
         <v>3050</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4392,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4398,13 +4404,13 @@
         <v>8517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4413,10 +4419,10 @@
         <v>8481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -4428,13 +4434,13 @@
         <v>16997</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4455,13 @@
         <v>3596</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4464,13 +4470,13 @@
         <v>2164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4479,13 +4485,13 @@
         <v>5760</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4559,13 @@
         <v>45810</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -4568,28 +4574,28 @@
         <v>39160</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
       </c>
       <c r="N28" s="7">
-        <v>84972</v>
+        <v>84971</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4610,10 @@
         <v>20670</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>243</v>
@@ -4682,7 +4688,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="7">
-        <v>112000</v>
+        <v>111999</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -4696,7 +4702,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F4B791-3975-4883-AF85-3A77565A521E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E44783-A2A7-4092-B767-AC6AC4DF7CB0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5917,7 +5923,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6087,10 +6093,10 @@
         <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -6099,13 +6105,13 @@
         <v>56783</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
@@ -6114,13 +6120,13 @@
         <v>112315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6141,13 @@
         <v>33351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -6150,13 +6156,13 @@
         <v>39694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -6165,13 +6171,13 @@
         <v>73045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6233,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
